--- a/Verification.xlsx
+++ b/Verification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\ATCR-TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5618068-F9EB-440D-B01B-E847059B1ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D43218-9109-4268-88EF-22BAD4D9A55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47FD59A7-3964-46FC-BE03-C6B259F3D8B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{47FD59A7-3964-46FC-BE03-C6B259F3D8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="5" r:id="rId1"/>
@@ -919,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF3BFB1-9843-4EB2-B459-330A7FB0DD72}">
   <dimension ref="D4:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -1089,11 +1089,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
     <mergeCell ref="D18:J18"/>
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="D5:J5"/>
@@ -1104,6 +1099,11 @@
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4995,8 +4995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D06BBD0-3540-47FD-9C64-4AC625E42B0E}">
   <dimension ref="B1:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5106,8 +5106,8 @@
         <v>13</v>
       </c>
       <c r="J4" s="45">
-        <f>H17*0.0135*35</f>
-        <v>22392.720000000001</v>
+        <f>H17*0.0135*42</f>
+        <v>26871.264000000003</v>
       </c>
       <c r="L4" s="2">
         <v>2018</v>
@@ -5340,7 +5340,7 @@
       </c>
       <c r="J10" s="37">
         <f>SUM(J4:J5)</f>
-        <v>30688.963396241918</v>
+        <v>35167.507396241919</v>
       </c>
       <c r="L10" s="2">
         <v>2012</v>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="J11" s="17">
         <f>J10/D3</f>
-        <v>0.62937518500937051</v>
+        <v>0.72122202982387396</v>
       </c>
       <c r="L11" s="2">
         <v>2011</v>
@@ -5866,7 +5866,7 @@
         <v>31601.785456477446</v>
       </c>
       <c r="F25" s="31">
-        <f t="shared" ref="F24:F37" si="4">P25*($H$13/E25)</f>
+        <f t="shared" ref="F25:F37" si="4">P25*($H$13/E25)</f>
         <v>54187.763483075782</v>
       </c>
       <c r="L25" s="53">
